--- a/test.xlsx
+++ b/test.xlsx
@@ -12,9 +12,9 @@
     <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7620" activeTab="2"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId2"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId3"/>
+    <sheet name="Q1" sheetId="1" r:id="rId1"/>
+    <sheet name="Q2" sheetId="3" r:id="rId2"/>
+    <sheet name="Q3" sheetId="2" r:id="rId3"/>
   </sheets>
   <calcPr calcId="162913"/>
   <pivotCaches>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="34">
   <si>
     <t>Productid</t>
   </si>
@@ -37,9 +37,6 @@
     <t xml:space="preserve">product category </t>
   </si>
   <si>
-    <t>Revenue</t>
-  </si>
-  <si>
     <t>Profit Margin</t>
   </si>
   <si>
@@ -61,12 +58,6 @@
     <t>$800</t>
   </si>
   <si>
-    <t>: Using Excel, create a pivot table to analyze the total revenue and profit margins for each product category. Additionally, calculate the percentage contribution of each product category to the total revenue.</t>
-  </si>
-  <si>
-    <t>Column1</t>
-  </si>
-  <si>
     <t>Row Labels</t>
   </si>
   <si>
@@ -88,9 +79,6 @@
     <t>Sum of Profit Margin</t>
   </si>
   <si>
-    <t>Count of Revenue</t>
-  </si>
-  <si>
     <t>Product id</t>
   </si>
   <si>
@@ -134,14 +122,24 @@
   </si>
   <si>
     <t>Current Stock Level</t>
+  </si>
+  <si>
+    <t>In rs</t>
+  </si>
+  <si>
+    <t>Revenue(in dollars)</t>
+  </si>
+  <si>
+    <t>% contricbution of each product</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <numFmts count="1">
+  <numFmts count="2">
     <numFmt numFmtId="168" formatCode="&quot;₹&quot;\ #,##0.00"/>
+    <numFmt numFmtId="170" formatCode="[$$-300A]#,##0.00"/>
   </numFmts>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
@@ -172,7 +170,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" pivotButton="1"/>
@@ -181,13 +179,32 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="170" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="2">
+  <dxfs count="7">
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
     <dxf>
       <numFmt numFmtId="168" formatCode="&quot;₹&quot;\ #,##0.00"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="13" formatCode="0%"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="168" formatCode="&quot;₹&quot;\ #,##0.00"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="168" formatCode="&quot;₹&quot;\ #,##0.00"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="170" formatCode="[$$-300A]#,##0.00"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="13" formatCode="0%"/>
@@ -203,6 +220,1299 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Q3'!$Q$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Product id</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:val>
+            <c:numRef>
+              <c:f>'Q3'!$Q$2:$Q$12</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-8597-4523-962F-34F2C6E05C68}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Q3'!$R$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Product name </c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:val>
+            <c:numRef>
+              <c:f>'Q3'!$R$2:$R$12</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-8597-4523-962F-34F2C6E05C68}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Q3'!$S$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Current Stock Level</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent3"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:val>
+            <c:numRef>
+              <c:f>'Q3'!$S$2:$S$12</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>300</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>300</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-8597-4523-962F-34F2C6E05C68}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="555378336"/>
+        <c:axId val="555380960"/>
+        <c:extLst>
+          <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+            <c15:filteredBarSeries>
+              <c15:ser>
+                <c:idx val="3"/>
+                <c:order val="3"/>
+                <c:tx>
+                  <c:strRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>'Q3'!$T$1</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="1"/>
+                      <c:pt idx="0">
+                        <c:v>Unit Price</c:v>
+                      </c:pt>
+                    </c:strCache>
+                  </c:strRef>
+                </c:tx>
+                <c:spPr>
+                  <a:solidFill>
+                    <a:schemeClr val="accent4"/>
+                  </a:solidFill>
+                  <a:ln>
+                    <a:noFill/>
+                  </a:ln>
+                  <a:effectLst/>
+                </c:spPr>
+                <c:invertIfNegative val="0"/>
+                <c:val>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>'Q3'!$T$2:$T$12</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="11"/>
+                      <c:pt idx="0">
+                        <c:v>10</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>20</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>20</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>20</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>30</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>40</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>50</c:v>
+                      </c:pt>
+                      <c:pt idx="7">
+                        <c:v>60</c:v>
+                      </c:pt>
+                      <c:pt idx="8">
+                        <c:v>40</c:v>
+                      </c:pt>
+                      <c:pt idx="9">
+                        <c:v>30</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:val>
+                <c:extLst>
+                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                    <c16:uniqueId val="{00000003-8597-4523-962F-34F2C6E05C68}"/>
+                  </c:ext>
+                </c:extLst>
+              </c15:ser>
+            </c15:filteredBarSeries>
+            <c15:filteredBarSeries>
+              <c15:ser>
+                <c:idx val="4"/>
+                <c:order val="4"/>
+                <c:tx>
+                  <c:strRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>'Q3'!$U$1</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="1"/>
+                      <c:pt idx="0">
+                        <c:v>Total Value</c:v>
+                      </c:pt>
+                    </c:strCache>
+                  </c:strRef>
+                </c:tx>
+                <c:spPr>
+                  <a:solidFill>
+                    <a:schemeClr val="accent5"/>
+                  </a:solidFill>
+                  <a:ln>
+                    <a:noFill/>
+                  </a:ln>
+                  <a:effectLst/>
+                </c:spPr>
+                <c:invertIfNegative val="0"/>
+                <c:val>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>'Q3'!$U$2:$U$12</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="11"/>
+                      <c:pt idx="0">
+                        <c:v>1000</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>4000</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>6000</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>4000</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>6000</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>8000</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>10000</c:v>
+                      </c:pt>
+                      <c:pt idx="7">
+                        <c:v>6000</c:v>
+                      </c:pt>
+                      <c:pt idx="8">
+                        <c:v>8000</c:v>
+                      </c:pt>
+                      <c:pt idx="9">
+                        <c:v>9000</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:val>
+                <c:extLst>
+                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                    <c16:uniqueId val="{00000004-8597-4523-962F-34F2C6E05C68}"/>
+                  </c:ext>
+                </c:extLst>
+              </c15:ser>
+            </c15:filteredBarSeries>
+          </c:ext>
+        </c:extLst>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="555378336"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-IN"/>
+                  <a:t>PRODUCT</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-IN" baseline="0"/>
+                  <a:t> ID</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-IN"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="555380960"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="555380960"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-IN"/>
+                  <a:t>Stock</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-IN" baseline="0"/>
+                  <a:t> Value</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-IN"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="555378336"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>29</xdr:col>
+      <xdr:colOff>342900</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -275,7 +1585,7 @@
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
 <pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable2" cacheId="6" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
-  <location ref="A3:C7" firstHeaderRow="0" firstDataRow="1" firstDataCol="1"/>
+  <location ref="A3:B10" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="5">
     <pivotField showAll="0"/>
     <pivotField axis="axisRow" showAll="0">
@@ -286,7 +1596,7 @@
         <item t="default"/>
       </items>
     </pivotField>
-    <pivotField dataField="1" showAll="0">
+    <pivotField axis="axisRow" showAll="0">
       <items count="4">
         <item x="0"/>
         <item x="1"/>
@@ -304,37 +1614,38 @@
     </pivotField>
     <pivotField showAll="0"/>
   </pivotFields>
-  <rowFields count="1">
+  <rowFields count="2">
     <field x="1"/>
+    <field x="2"/>
   </rowFields>
-  <rowItems count="4">
+  <rowItems count="7">
     <i>
       <x/>
+    </i>
+    <i r="1">
+      <x v="1"/>
     </i>
     <i>
       <x v="1"/>
     </i>
+    <i r="1">
+      <x/>
+    </i>
     <i>
+      <x v="2"/>
+    </i>
+    <i r="1">
       <x v="2"/>
     </i>
     <i t="grand">
       <x/>
     </i>
   </rowItems>
-  <colFields count="1">
-    <field x="-2"/>
-  </colFields>
-  <colItems count="2">
-    <i>
-      <x/>
-    </i>
-    <i i="1">
-      <x v="1"/>
-    </i>
+  <colItems count="1">
+    <i/>
   </colItems>
-  <dataFields count="2">
+  <dataFields count="1">
     <dataField name="Sum of Profit Margin" fld="3" baseField="0" baseItem="0"/>
-    <dataField name="Count of Revenue" fld="2" subtotal="count" baseField="0" baseItem="0"/>
   </dataFields>
   <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
   <extLst>
@@ -433,14 +1744,22 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A2:E5" totalsRowShown="0">
-  <autoFilter ref="A2:E5"/>
-  <tableColumns count="5">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A2:F6" totalsRowCount="1">
+  <autoFilter ref="A2:F6"/>
+  <tableColumns count="6">
     <tableColumn id="1" name="Productid"/>
     <tableColumn id="2" name="product category "/>
-    <tableColumn id="3" name="Revenue" dataDxfId="0"/>
-    <tableColumn id="4" name="Profit Margin" dataDxfId="1"/>
-    <tableColumn id="5" name="Column1"/>
+    <tableColumn id="3" name="Revenue(in dollars)" totalsRowFunction="custom" dataDxfId="5" totalsRowDxfId="3">
+      <totalsRowFormula>SUM(Table1[Revenue(in dollars)])</totalsRowFormula>
+    </tableColumn>
+    <tableColumn id="4" name="Profit Margin" dataDxfId="6" totalsRowDxfId="2"/>
+    <tableColumn id="6" name="In rs" totalsRowFunction="custom" dataDxfId="4" totalsRowDxfId="1">
+      <calculatedColumnFormula>Table1[[#This Row],[Revenue(in dollars)]]*74</calculatedColumnFormula>
+      <totalsRowFormula>SUM(E3:E5)</totalsRowFormula>
+    </tableColumn>
+    <tableColumn id="7" name="% contricbution of each product" dataDxfId="0">
+      <calculatedColumnFormula>Table1[[#This Row],[Profit Margin]]*Table1[[#This Row],[In rs]]</calculatedColumnFormula>
+    </tableColumn>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -725,10 +2044,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:E7"/>
+  <dimension ref="A2:F6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -737,10 +2056,11 @@
     <col min="2" max="2" width="18.42578125" customWidth="1"/>
     <col min="3" max="3" width="11" customWidth="1"/>
     <col min="4" max="4" width="14.85546875" customWidth="1"/>
-    <col min="5" max="5" width="11" customWidth="1"/>
+    <col min="5" max="5" width="12.85546875" customWidth="1"/>
+    <col min="6" max="6" width="32" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -748,60 +2068,93 @@
         <v>1</v>
       </c>
       <c r="C2" t="s">
+        <v>32</v>
+      </c>
+      <c r="D2" t="s">
         <v>2</v>
       </c>
-      <c r="D2" t="s">
-        <v>3</v>
-      </c>
       <c r="E2" t="s">
-        <v>11</v>
+        <v>31</v>
+      </c>
+      <c r="F2" t="s">
+        <v>33</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>4</v>
-      </c>
-      <c r="C3" s="5" t="s">
-        <v>5</v>
+        <v>3</v>
+      </c>
+      <c r="C3" s="7">
+        <v>1000</v>
       </c>
       <c r="D3" s="1">
         <v>0.2</v>
       </c>
+      <c r="E3" s="5">
+        <f>Table1[[#This Row],[Revenue(in dollars)]]*74</f>
+        <v>74000</v>
+      </c>
+      <c r="F3">
+        <f>Table1[[#This Row],[Profit Margin]]*Table1[[#This Row],[In rs]]</f>
+        <v>14800</v>
+      </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>6</v>
-      </c>
-      <c r="C4" s="5" t="s">
-        <v>7</v>
+        <v>5</v>
+      </c>
+      <c r="C4" s="7">
+        <v>500</v>
       </c>
       <c r="D4" s="1">
         <v>0.25</v>
       </c>
+      <c r="E4" s="5">
+        <f>Table1[[#This Row],[Revenue(in dollars)]]*74</f>
+        <v>37000</v>
+      </c>
+      <c r="F4">
+        <f>Table1[[#This Row],[Profit Margin]]*Table1[[#This Row],[In rs]]</f>
+        <v>9250</v>
+      </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>8</v>
-      </c>
-      <c r="C5" s="5" t="s">
-        <v>9</v>
+        <v>7</v>
+      </c>
+      <c r="C5" s="7">
+        <v>800</v>
       </c>
       <c r="D5" s="1">
         <v>0.15</v>
       </c>
+      <c r="E5" s="5">
+        <f>Table1[[#This Row],[Revenue(in dollars)]]*74</f>
+        <v>59200</v>
+      </c>
+      <c r="F5">
+        <f>Table1[[#This Row],[Profit Margin]]*Table1[[#This Row],[In rs]]</f>
+        <v>8880</v>
+      </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B7" t="s">
-        <v>10</v>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C6" s="5">
+        <f>SUM(Table1[Revenue(in dollars)])</f>
+        <v>2300</v>
+      </c>
+      <c r="D6" s="1"/>
+      <c r="E6" s="5">
+        <f>SUM(E3:E5)</f>
+        <v>170200</v>
       </c>
     </row>
   </sheetData>
@@ -815,17 +2168,17 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A3:C7"/>
+  <dimension ref="A3:B10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="16.5703125" customWidth="1"/>
-    <col min="2" max="2" width="19.5703125" customWidth="1"/>
-    <col min="3" max="3" width="17" customWidth="1"/>
+    <col min="1" max="1" width="18.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="19.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="5" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="5" customWidth="1"/>
     <col min="5" max="5" width="11.28515625" customWidth="1"/>
     <col min="6" max="6" width="6.85546875" customWidth="1"/>
@@ -833,59 +2186,68 @@
     <col min="8" max="8" width="11.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="B3" t="s">
-        <v>18</v>
-      </c>
-      <c r="C3" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B4" s="4">
         <v>0.25</v>
       </c>
-      <c r="C4" s="4">
-        <v>1</v>
-      </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" s="3" t="s">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="B5" s="4">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B6" s="4">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="4">
+      <c r="B7" s="4">
         <v>0.2</v>
       </c>
-      <c r="C5" s="4">
-        <v>1</v>
-      </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6" s="3" t="s">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B8" s="4">
+        <v>0.15</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="B6" s="4">
+      <c r="B9" s="4">
         <v>0.15</v>
       </c>
-      <c r="C6" s="4">
-        <v>1</v>
-      </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="B7" s="4">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B10" s="4">
         <v>0.6</v>
-      </c>
-      <c r="C7" s="4">
-        <v>3</v>
       </c>
     </row>
   </sheetData>
@@ -898,7 +2260,7 @@
   <dimension ref="A1:U11"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="Q1" workbookViewId="0">
-      <selection activeCell="Y7" sqref="Y7"/>
+      <selection activeCell="U20" sqref="U20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -920,51 +2282,51 @@
   <sheetData>
     <row r="1" spans="1:21" x14ac:dyDescent="0.25">
       <c r="B1" s="2" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="Q1" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="R1" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="S1" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="T1" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="U1" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
     </row>
     <row r="2" spans="1:21" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C2" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="D2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E2" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="F2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G2" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="H2" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="Q2">
         <v>1</v>
       </c>
       <c r="R2" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="S2">
         <v>100</v>
@@ -979,7 +2341,7 @@
     </row>
     <row r="3" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="B3" s="1">
         <v>0.2</v>
@@ -994,7 +2356,7 @@
         <v>2</v>
       </c>
       <c r="R3" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="S3">
         <v>200</v>
@@ -1009,13 +2371,13 @@
     </row>
     <row r="4" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="Q4">
         <v>3</v>
       </c>
       <c r="R4" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="S4">
         <v>300</v>
@@ -1030,13 +2392,13 @@
     </row>
     <row r="5" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="Q5">
         <v>4</v>
       </c>
       <c r="R5" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="S5">
         <v>200</v>
@@ -1051,13 +2413,13 @@
     </row>
     <row r="6" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="Q6">
         <v>5</v>
       </c>
       <c r="R6" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="S6">
         <v>200</v>
@@ -1072,13 +2434,13 @@
     </row>
     <row r="7" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="Q7">
         <v>6</v>
       </c>
       <c r="R7" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="S7">
         <v>200</v>
@@ -1096,7 +2458,7 @@
         <v>7</v>
       </c>
       <c r="R8" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="S8">
         <v>200</v>
@@ -1114,7 +2476,7 @@
         <v>8</v>
       </c>
       <c r="R9" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="S9">
         <v>100</v>
@@ -1132,7 +2494,7 @@
         <v>9</v>
       </c>
       <c r="R10" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="S10">
         <v>200</v>
@@ -1150,7 +2512,7 @@
         <v>10</v>
       </c>
       <c r="R11" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="S11">
         <v>300</v>
@@ -1165,8 +2527,9 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId2"/>
   <tableParts count="1">
-    <tablePart r:id="rId2"/>
+    <tablePart r:id="rId3"/>
   </tableParts>
 </worksheet>
 </file>